--- a/Python/Simplex_Bales0.xlsx
+++ b/Python/Simplex_Bales0.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>Current Basis</t>
+  </si>
+  <si>
+    <t>Current x</t>
+  </si>
+  <si>
+    <t>Current cost value</t>
   </si>
   <si>
     <t>[4, 5, 6]</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,82 +429,106 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-0.008000000000000035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>-0.05000000000000002</v>
       </c>
     </row>
   </sheetData>
